--- a/arbeitszeit.xlsx
+++ b/arbeitszeit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\IdeaProjects\Eckert Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A60D9B-A62D-4341-AEE4-0843687E63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B820E53-1222-4EB6-8AB4-399D90B251A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3DE9C98-0436-4FB4-B06B-7A93EE6B3D59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Arbeitsstunden Becker Moritz</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t xml:space="preserve"> + Server Setup and transission</t>
+  </si>
+  <si>
+    <t>18:00 - 21:30</t>
+  </si>
+  <si>
+    <t>19:00 - 23:30</t>
+  </si>
+  <si>
+    <t>12:30 - 18:30</t>
   </si>
 </sst>
 </file>
@@ -478,20 +487,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -515,15 +518,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,17 +528,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,25 +551,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,6 +562,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,7 +927,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,377 +941,389 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>45922</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>45923</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>45924</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>45925</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>45926</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>45929</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>45930</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>45931</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>45932</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>45933</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="22">
         <v>45936</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="23">
         <v>45937</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="23">
         <v>45938</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="23">
         <v>45939</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="24">
         <v>45940</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>3</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="22">
         <v>45943</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="19">
         <v>5</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="23">
         <v>45944</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="20">
         <v>4.5</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="23">
         <v>45945</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="23">
         <v>45946</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="22"/>
+      <c r="D25" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="24">
         <v>45947</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="21">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="33">
+      <c r="B29" s="36">
         <v>14</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="14">
+      <c r="C29" s="37"/>
+      <c r="D29" s="34">
         <f>D4+D5+D6+D7+D8+D10+D11+D12+D13+D14+D16+D17+D18+D19+D20+D22+D24+D23+D26+D25</f>
-        <v>92.5</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="34">
+        <v>106.5</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="25">
         <f>B29*D29</f>
-        <v>1295</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">

--- a/arbeitszeit.xlsx
+++ b/arbeitszeit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\IdeaProjects\Eckert Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B820E53-1222-4EB6-8AB4-399D90B251A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC840D-D9B8-420B-BB1F-27845FEA6025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3DE9C98-0436-4FB4-B06B-7A93EE6B3D59}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3DE9C98-0436-4FB4-B06B-7A93EE6B3D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>Arbeitsstunden Becker Moritz</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>12:30 - 18:30</t>
+  </si>
+  <si>
+    <t>10:30 - 15:50, 18:00 - 23:00</t>
+  </si>
+  <si>
+    <t>18:00 - 24:00</t>
   </si>
 </sst>
 </file>
@@ -924,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE89B172-B3F2-4C47-A3CE-42F89B6F8F05}">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,14 +1338,388 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>45950</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>45951</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10.33</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
+        <v>45952</v>
+      </c>
+      <c r="D37" s="6">
+        <v>6</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8">
+        <v>45953</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="9">
+        <v>45954</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <v>45957</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8">
+        <v>45958</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <v>45959</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="8">
+        <v>45960</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45961</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="22">
+        <v>45964</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="23">
+        <v>45965</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="23">
+        <v>45966</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="23">
+        <v>45967</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="24">
+        <v>45968</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="22">
+        <v>45971</v>
+      </c>
+      <c r="D53" s="19">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="23">
+        <v>45972</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="23">
+        <v>45973</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="23">
+        <v>45974</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="24">
+        <v>45975</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="36">
+        <v>14</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="34">
+        <f>D35+D36+D37+D38+D39+D41+D42+D43+D44+D45+D47+D48+D49+D50+D51+D53+D55+D54+D57+D56</f>
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E60" s="35"/>
+      <c r="F60" s="25">
+        <f>B60*D60</f>
+        <v>228.61999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>

--- a/arbeitszeit.xlsx
+++ b/arbeitszeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\IdeaProjects\Eckert Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC840D-D9B8-420B-BB1F-27845FEA6025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5032FA-3488-4152-98E7-F9B117C1BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3DE9C98-0436-4FB4-B06B-7A93EE6B3D59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
   <si>
     <t>Arbeitsstunden Becker Moritz</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>18:00 - 24:00</t>
+  </si>
+  <si>
+    <t>17:00 - 24:00</t>
   </si>
 </sst>
 </file>
@@ -584,16 +587,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE89B172-B3F2-4C47-A3CE-42F89B6F8F05}">
   <dimension ref="B1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,15 +1321,15 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36">
+      <c r="B29" s="34">
         <v>14</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="34">
+      <c r="C29" s="35"/>
+      <c r="D29" s="36">
         <f>D4+D5+D6+D7+D8+D10+D11+D12+D13+D14+D16+D17+D18+D19+D20+D22+D24+D23+D26+D25</f>
         <v>106.5</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="25">
         <f>B29*D29</f>
         <v>1491</v>
@@ -1418,9 +1421,11 @@
         <v>45953</v>
       </c>
       <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1699,32 +1704,32 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36">
+      <c r="B60" s="34">
         <v>14</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="34">
+      <c r="C60" s="35"/>
+      <c r="D60" s="36">
         <f>D35+D36+D37+D38+D39+D41+D42+D43+D44+D45+D47+D48+D49+D50+D51+D53+D55+D54+D57+D56</f>
-        <v>16.329999999999998</v>
-      </c>
-      <c r="E60" s="35"/>
+        <v>23.33</v>
+      </c>
+      <c r="E60" s="37"/>
       <c r="F60" s="25">
         <f>B60*D60</f>
-        <v>228.61999999999998</v>
+        <v>326.62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/arbeitszeit.xlsx
+++ b/arbeitszeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\IdeaProjects\Eckert Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5032FA-3488-4152-98E7-F9B117C1BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A51160E-34F2-4D98-AA1D-8FA04A50BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3DE9C98-0436-4FB4-B06B-7A93EE6B3D59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>Arbeitsstunden Becker Moritz</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>17:00 - 24:00</t>
+  </si>
+  <si>
+    <t>18:30 - 24:00</t>
+  </si>
+  <si>
+    <t>18:00-24:00</t>
   </si>
 </sst>
 </file>
@@ -587,16 +593,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,7 +942,7 @@
   <dimension ref="B1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,15 +1327,15 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34">
+      <c r="B29" s="36">
         <v>14</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36">
+      <c r="C29" s="37"/>
+      <c r="D29" s="34">
         <f>D4+D5+D6+D7+D8+D10+D11+D12+D13+D14+D16+D17+D18+D19+D20+D22+D24+D23+D26+D25</f>
         <v>106.5</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="25">
         <f>B29*D29</f>
         <v>1491</v>
@@ -1456,10 +1462,10 @@
         <v>45957</v>
       </c>
       <c r="D41" s="5">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F41" s="26"/>
     </row>
@@ -1471,10 +1477,10 @@
         <v>45958</v>
       </c>
       <c r="D42" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F42" s="27"/>
     </row>
@@ -1486,10 +1492,10 @@
         <v>45959</v>
       </c>
       <c r="D43" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F43" s="27"/>
     </row>
@@ -1501,10 +1507,10 @@
         <v>45960</v>
       </c>
       <c r="D44" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -1704,32 +1710,32 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="36">
         <v>14</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36">
+      <c r="C60" s="37"/>
+      <c r="D60" s="34">
         <f>D35+D36+D37+D38+D39+D41+D42+D43+D44+D45+D47+D48+D49+D50+D51+D53+D55+D54+D57+D56</f>
-        <v>23.33</v>
-      </c>
-      <c r="E60" s="37"/>
+        <v>42.83</v>
+      </c>
+      <c r="E60" s="35"/>
       <c r="F60" s="25">
         <f>B60*D60</f>
-        <v>326.62</v>
+        <v>599.62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/arbeitszeit.xlsx
+++ b/arbeitszeit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\IdeaProjects\Eckert Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A51160E-34F2-4D98-AA1D-8FA04A50BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58894D26-36A2-4863-9967-927C25953241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3DE9C98-0436-4FB4-B06B-7A93EE6B3D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3DE9C98-0436-4FB4-B06B-7A93EE6B3D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>Arbeitsstunden Becker Moritz</t>
   </si>
@@ -129,6 +129,27 @@
   </si>
   <si>
     <t>18:00-24:00</t>
+  </si>
+  <si>
+    <t>18:00 - 22:00</t>
+  </si>
+  <si>
+    <t>18:00 - 23:00</t>
+  </si>
+  <si>
+    <t>18:00 - 22:30</t>
+  </si>
+  <si>
+    <t>18:00 - 01:00</t>
+  </si>
+  <si>
+    <t>Sam &amp; Son</t>
+  </si>
+  <si>
+    <t>1 &amp; 2</t>
+  </si>
+  <si>
+    <t>18 - 20 &amp; 14  - 20</t>
   </si>
 </sst>
 </file>
@@ -502,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,16 +614,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE89B172-B3F2-4C47-A3CE-42F89B6F8F05}">
-  <dimension ref="B1:F60"/>
+  <dimension ref="B1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,15 +1351,15 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36">
+      <c r="B29" s="34">
         <v>14</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="34">
+      <c r="C29" s="35"/>
+      <c r="D29" s="36">
         <f>D4+D5+D6+D7+D8+D10+D11+D12+D13+D14+D16+D17+D18+D19+D20+D22+D24+D23+D26+D25</f>
         <v>106.5</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="25">
         <f>B29*D29</f>
         <v>1491</v>
@@ -1530,10 +1554,18 @@
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="B46" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="4">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1576,10 @@
         <v>45964</v>
       </c>
       <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F47" s="16"/>
     </row>
@@ -1559,10 +1591,10 @@
         <v>45965</v>
       </c>
       <c r="D48" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F48" s="17"/>
     </row>
@@ -1574,10 +1606,10 @@
         <v>45966</v>
       </c>
       <c r="D49" s="6">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F49" s="17"/>
     </row>
@@ -1589,10 +1621,10 @@
         <v>45967</v>
       </c>
       <c r="D50" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F50" s="17"/>
     </row>
@@ -1626,7 +1658,7 @@
         <v>45971</v>
       </c>
       <c r="D53" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>19</v>
@@ -1641,7 +1673,7 @@
         <v>45972</v>
       </c>
       <c r="D54" s="20">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>11</v>
@@ -1656,10 +1688,10 @@
         <v>45973</v>
       </c>
       <c r="D55" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F55" s="17"/>
     </row>
@@ -1671,7 +1703,7 @@
         <v>45974</v>
       </c>
       <c r="D56" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>24</v>
@@ -1710,33 +1742,338 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36">
+      <c r="B60" s="34">
         <v>14</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="34">
-        <f>D35+D36+D37+D38+D39+D41+D42+D43+D44+D45+D47+D48+D49+D50+D51+D53+D55+D54+D57+D56</f>
-        <v>42.83</v>
-      </c>
-      <c r="E60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36">
+        <f>D35+D36+D37+D38+D39+D41+D42+D43+D44+D45+D47+D48+D49+D50+D51+D53+D55+D54+D57+D56+D46</f>
+        <v>84.83</v>
+      </c>
+      <c r="E60" s="37"/>
       <c r="F60" s="25">
         <f>B60*D60</f>
-        <v>599.62</v>
+        <v>1187.6199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <v>45978</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="8">
+        <v>45979</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8">
+        <v>45980</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="8">
+        <v>45981</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="9">
+        <v>45982</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10">
+        <v>45985</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8">
+        <v>45986</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="27"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="8">
+        <v>45987</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="27"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="8">
+        <v>45988</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="27"/>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="9">
+        <v>45989</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="28"/>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="22">
+        <v>45992</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="23">
+        <v>45993</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="23">
+        <v>45994</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="23">
+        <v>45995</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="24">
+        <v>45996</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="22">
+        <v>45971</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="23">
+        <v>45972</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="23">
+        <v>45973</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="23">
+        <v>45974</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="24">
+        <v>45975</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="33"/>
+      <c r="D89" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="33"/>
+      <c r="F89" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="34">
+        <v>14</v>
+      </c>
+      <c r="C90" s="35"/>
+      <c r="D90" s="36">
+        <f>D65+D66+D67+D68+D69+D71+D72+D73+D74+D75+D77+D78+D79+D80+D81+D83+D85+D84+D87+D86</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="37"/>
+      <c r="F90" s="25">
+        <f>B90*D90</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>